--- a/data/sources.xlsx
+++ b/data/sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdzaki/Documents/GitHub/Cementron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F043D1B4-92B8-8C47-A767-7482398D5AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C98947-2D50-814E-848C-E903EC66A4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="760" windowWidth="27640" windowHeight="16020" xr2:uid="{76DCB0FF-126E-B741-8DF2-F796CA892A99}"/>
+    <workbookView xWindow="4900" yWindow="760" windowWidth="27640" windowHeight="16020" xr2:uid="{76DCB0FF-126E-B741-8DF2-F796CA892A99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,13 +125,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -439,7 +450,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,11 +591,14 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" xr:uid="{D9368C6F-A727-6843-973E-11F96CF7FB74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>